--- a/customerData.xlsx
+++ b/customerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semantic\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA84BBB-B045-4AB8-B2D5-1CD1A67120B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E767FE5E-A954-4893-88DD-12DA86E11B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4B4CC195-1E61-4907-B2A4-D337134EB1AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
   <si>
     <t>Customer ID</t>
   </si>
@@ -411,6 +411,69 @@
   </si>
   <si>
     <t>emilyallen@example.com</t>
+  </si>
+  <si>
+    <t>Cus6</t>
+  </si>
+  <si>
+    <t>Cus7</t>
+  </si>
+  <si>
+    <t>Cus8</t>
+  </si>
+  <si>
+    <t>Cus9</t>
+  </si>
+  <si>
+    <t>Cus10</t>
+  </si>
+  <si>
+    <t>Cus11</t>
+  </si>
+  <si>
+    <t>Cus12</t>
+  </si>
+  <si>
+    <t>Cus13</t>
+  </si>
+  <si>
+    <t>Cus14</t>
+  </si>
+  <si>
+    <t>Cus15</t>
+  </si>
+  <si>
+    <t>Cus16</t>
+  </si>
+  <si>
+    <t>Cus17</t>
+  </si>
+  <si>
+    <t>Cus18</t>
+  </si>
+  <si>
+    <t>Cus19</t>
+  </si>
+  <si>
+    <t>Cus20</t>
+  </si>
+  <si>
+    <t>Cus21</t>
+  </si>
+  <si>
+    <t>Cus22</t>
+  </si>
+  <si>
+    <t>Cus23</t>
+  </si>
+  <si>
+    <t>Cus24</t>
+  </si>
+  <si>
+    <t>Cus5</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -762,557 +825,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C3F966-112B-44A9-A14E-A239A1969679}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>75</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>123</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>124</v>
       </c>
     </row>
